--- a/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
+++ b/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AAA3E5-F7BC-45CF-AB1B-E7CBCBA0789E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2450C0-7DE5-42E3-854A-435A86279EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="152">
   <si>
     <t>mappingname</t>
   </si>
@@ -420,13 +420,88 @@
   </si>
   <si>
     <t>ar_properties_50.csv</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>washrooms</t>
+  </si>
+  <si>
+    <t>carpet_area</t>
+  </si>
+  <si>
+    <t>built_up</t>
+  </si>
+  <si>
+    <t>proptype1</t>
+  </si>
+  <si>
+    <t>proptype2</t>
+  </si>
+  <si>
+    <t>proptype3</t>
+  </si>
+  <si>
+    <t>proptype4</t>
+  </si>
+  <si>
+    <t>proptype5</t>
+  </si>
+  <si>
+    <t>adtype1</t>
+  </si>
+  <si>
+    <t>adtype2</t>
+  </si>
+  <si>
+    <t>adtype3</t>
+  </si>
+  <si>
+    <t>adtype4</t>
+  </si>
+  <si>
+    <t>adtype5</t>
+  </si>
+  <si>
+    <t>dining</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>baths</t>
+  </si>
+  <si>
+    <t>super_built</t>
+  </si>
+  <si>
+    <t>walltowall</t>
+  </si>
+  <si>
+    <t>retail_price</t>
+  </si>
+  <si>
+    <t>denomination</t>
+  </si>
+  <si>
+    <t>discount_price</t>
+  </si>
+  <si>
+    <t>rate_card</t>
+  </si>
+  <si>
+    <t>lockin_period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +520,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1241,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F175362-E919-4E0B-BAAB-8F57DA09A5DB}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,36 +1885,39 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D28" s="6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>67</v>
@@ -1841,19 +1925,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D29" s="6">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>67</v>
@@ -1861,19 +1945,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D30" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>67</v>
@@ -1881,19 +1965,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D31" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>67</v>
@@ -1901,19 +1985,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>67</v>
@@ -1921,19 +2005,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D33" s="6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>67</v>
@@ -1941,16 +2025,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D34" s="6">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>66</v>
@@ -1961,16 +2045,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D35" s="6">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>66</v>
@@ -1981,16 +2065,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D36" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>66</v>
@@ -2001,19 +2085,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D37" s="6">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>67</v>
@@ -2021,19 +2105,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D38" s="6">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>67</v>
@@ -2041,19 +2125,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D39" s="6">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>67</v>
@@ -2061,16 +2145,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D40" s="6">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>120</v>
@@ -2081,16 +2165,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>120</v>
@@ -2101,19 +2185,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D42" s="6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>67</v>
@@ -2121,19 +2205,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D43" s="6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>67</v>
@@ -2141,19 +2225,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D44" s="6">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>67</v>
@@ -2161,19 +2245,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D45" s="6">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>67</v>
@@ -2181,16 +2265,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D46" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>66</v>
@@ -2201,19 +2285,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D47" s="6">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>67</v>
@@ -2221,16 +2305,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D48" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>66</v>
@@ -2241,19 +2325,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D49" s="6">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>67</v>
@@ -2261,16 +2345,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D50" s="6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>66</v>
@@ -2281,16 +2365,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D51" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>66</v>
@@ -2301,10 +2385,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>68</v>
@@ -2318,10 +2402,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>96</v>
@@ -2338,10 +2422,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>97</v>
@@ -2358,10 +2442,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>98</v>
@@ -2378,10 +2462,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>99</v>
@@ -2398,10 +2482,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>100</v>
@@ -2418,10 +2502,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>101</v>
@@ -2438,10 +2522,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>102</v>
@@ -2458,10 +2542,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>103</v>
@@ -2478,10 +2562,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>104</v>
@@ -2498,10 +2582,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>105</v>
@@ -2518,10 +2602,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>106</v>
@@ -2538,10 +2622,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>107</v>
@@ -2558,10 +2642,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>108</v>
@@ -2578,10 +2662,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>109</v>
@@ -2598,10 +2682,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>110</v>
@@ -2618,10 +2702,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>111</v>
@@ -2638,10 +2722,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>112</v>
@@ -2658,10 +2742,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>113</v>
@@ -2678,10 +2762,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>114</v>
@@ -2698,10 +2782,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>115</v>
@@ -2718,10 +2802,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>116</v>
@@ -2738,10 +2822,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>117</v>
@@ -2758,10 +2842,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>118</v>
@@ -2778,10 +2862,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>119</v>
@@ -2796,7 +2880,1505 @@
         <v>67</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="6">
+        <v>26</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="6">
+        <v>27</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="6">
+        <v>28</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="6">
+        <v>29</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="6">
+        <v>30</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="6">
+        <v>31</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="6">
+        <v>32</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="6">
+        <v>33</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="6">
+        <v>34</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="6">
+        <v>35</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="6">
+        <v>36</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="6">
+        <v>37</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="6">
+        <v>38</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="6">
+        <v>39</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="6">
+        <v>40</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="6">
+        <v>41</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="6">
+        <v>42</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="6">
+        <v>43</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="6">
+        <v>44</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="6">
+        <v>45</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="6">
+        <v>46</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="6">
+        <v>47</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="6">
+        <v>48</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="6">
+        <v>49</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="6">
+        <v>50</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="6">
+        <v>2</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="6">
+        <v>3</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="6">
+        <v>6</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="6">
+        <v>7</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="6">
+        <v>8</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="6">
+        <v>9</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="6">
+        <v>10</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="6">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" s="6">
+        <v>12</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114" s="6">
+        <v>13</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="6">
+        <v>14</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D116" s="6">
+        <v>15</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="6">
+        <v>16</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="6">
+        <v>17</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="6">
+        <v>18</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="6">
+        <v>19</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="6">
+        <v>20</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="6">
+        <v>21</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="6">
+        <v>22</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" s="6">
+        <v>23</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="6">
+        <v>24</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="6">
+        <v>25</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="6">
+        <v>26</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D128" s="6">
+        <v>27</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" s="6">
+        <v>28</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="6">
+        <v>29</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="6">
+        <v>30</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="6">
+        <v>31</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="6">
+        <v>32</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="6">
+        <v>33</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="6">
+        <v>34</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="6">
+        <v>35</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="6">
+        <v>36</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="6">
+        <v>37</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="6">
+        <v>38</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="6">
+        <v>39</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="6">
+        <v>40</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="6">
+        <v>41</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="6">
+        <v>42</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144" s="6">
+        <v>43</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="6">
+        <v>44</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D146" s="6">
+        <v>45</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="6">
+        <v>46</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="6">
+        <v>47</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149" s="6">
+        <v>48</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" s="6">
+        <v>49</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="6">
+        <v>50</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:I1048576" xr:uid="{2B39C0AC-3DC0-431B-8113-EC16525F6461}">
       <formula1>"Y,N"</formula1>
@@ -2810,8 +4392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CEAC93-3CAF-4C72-B23C-9D0503A9F8C2}">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,13 +5267,27 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -3703,13 +5299,27 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -3721,13 +5331,27 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3739,13 +5363,27 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -3757,13 +5395,27 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -3775,13 +5427,27 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3793,13 +5459,27 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -3811,13 +5491,27 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -3829,13 +5523,27 @@
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -3847,13 +5555,27 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -3865,13 +5587,27 @@
       <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -3883,13 +5619,27 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -3901,13 +5651,27 @@
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -3919,13 +5683,27 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3937,13 +5715,27 @@
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -3955,13 +5747,27 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -3973,13 +5779,27 @@
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3991,13 +5811,27 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -4009,13 +5843,27 @@
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4027,13 +5875,27 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -4045,13 +5907,27 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -4063,13 +5939,27 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -4081,13 +5971,27 @@
       <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -4099,13 +6003,27 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -4117,13 +6035,27 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -5971,10 +7903,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{FD1F8369-ED94-4396-99E3-A608B1DC2669}">
       <formula1>"asc,desc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D27:D1048576" xr:uid="{14934E00-62A3-4047-9EBD-9E98CBAFFCD7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D52:D1048576" xr:uid="{14934E00-62A3-4047-9EBD-9E98CBAFFCD7}">
       <formula1>"stage,source"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{F482B76B-5B42-4CC2-AFA9-487E4A320D51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A52:A1048576" xr:uid="{F482B76B-5B42-4CC2-AFA9-487E4A320D51}">
       <formula1>"target"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5987,7 +7919,7 @@
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G31" sqref="G31:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,13 +8793,27 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -6879,13 +8825,27 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -6897,13 +8857,27 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -6915,13 +8889,27 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -6933,13 +8921,27 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -6951,13 +8953,27 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6969,13 +8985,27 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -6987,13 +9017,27 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -7005,13 +9049,27 @@
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -7023,13 +9081,27 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -7041,13 +9113,27 @@
       <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -7059,13 +9145,27 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -7077,13 +9177,27 @@
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -7095,13 +9209,27 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -7113,13 +9241,27 @@
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -7131,13 +9273,27 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -7149,13 +9305,27 @@
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -7167,13 +9337,27 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -7185,13 +9369,27 @@
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -7203,13 +9401,27 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -7221,13 +9433,27 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -7239,13 +9465,27 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -7257,13 +9497,27 @@
       <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -7275,13 +9529,27 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -7293,13 +9561,27 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -9138,10 +11420,10 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{E014C82D-A48E-4F23-A792-D29AD91E1240}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A52:A1048576" xr:uid="{E014C82D-A48E-4F23-A792-D29AD91E1240}">
       <formula1>"target"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D27:D1048576" xr:uid="{09455547-24CF-466D-A644-08FBDC55E54D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D52:D1048576" xr:uid="{09455547-24CF-466D-A644-08FBDC55E54D}">
       <formula1>"stage,source"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{B4533C99-D538-4EFF-B76A-7A990E88FE9B}">
